--- a/outcome/Analysis.xlsx
+++ b/outcome/Analysis.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirayhao/Code/ml/mlp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirayhao/Code/ml/outcome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B004B89-F64F-E044-BE7C-25D80EDEE75C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A60DA3-89A5-1048-800C-814F333B7ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10820" yWindow="-28800" windowWidth="51200" windowHeight="28800" activeTab="2" xr2:uid="{CB1111F2-1B6E-6948-92C8-075319955442}"/>
+    <workbookView xWindow="14180" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{CB1111F2-1B6E-6948-92C8-075319955442}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Table" sheetId="3" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="Data - Continuous" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="18">
   <si>
     <t>MLP</t>
   </si>
@@ -168,13 +171,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -182,30 +185,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -214,13 +196,10 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,7 +511,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -589,7 +567,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -646,7 +623,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -703,7 +679,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -760,7 +735,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -817,7 +791,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -874,7 +847,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1371,7 +1343,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="l"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1699,6 +1670,663 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analysis.xlsx]Sheet2!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Accuracy of a 3-hidden</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> layer MLP over Epochs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>0.1535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71020000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.84160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.88029999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89770000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.90510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90959999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.91590000000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92779999999999996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.93220000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.9345</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.93810000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94779999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.95050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.95320000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D60-6C4B-B4BB-90B1D0DBCCD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1961461376"/>
+        <c:axId val="1961598624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1961461376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Epochs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961598624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1961598624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1961461376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1739,7 +2367,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2296,6 +3480,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1827F59-B61A-4243-81F4-813D5C4710A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43788.674969444444" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="21" xr:uid="{98C14E96-657D-424B-A82C-545DC8898119}">
   <cacheSource type="worksheet">
@@ -2334,6 +3559,68 @@
     </cacheField>
     <cacheField name="Accuracy" numFmtId="10">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.8299999999999998E-2" maxValue="0.92779999999999996"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43790.927823148151" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{A316982D-3D78-134C-A7E8-65D45CA38640}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Hidden layers" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Loss function" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Optimizer" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Epochs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="100" count="28">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="5"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="15"/>
+        <n v="20"/>
+        <n v="25"/>
+        <n v="30"/>
+        <n v="35"/>
+        <n v="40"/>
+        <n v="45"/>
+        <n v="50"/>
+        <n v="55"/>
+        <n v="60"/>
+        <n v="65"/>
+        <n v="70"/>
+        <n v="75"/>
+        <n v="80"/>
+        <n v="85"/>
+        <n v="90"/>
+        <n v="95"/>
+        <n v="100"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Accuracy" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1535" maxValue="0.95320000000000005"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2517,8 +3804,237 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="0"/>
+    <n v="0.1535"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="1"/>
+    <n v="0.18940000000000001"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="2"/>
+    <n v="0.26290000000000002"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="3"/>
+    <n v="0.42559999999999998"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="4"/>
+    <n v="0.61539999999999995"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="5"/>
+    <n v="0.71020000000000005"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="6"/>
+    <n v="0.77210000000000001"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="7"/>
+    <n v="0.80710000000000004"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="8"/>
+    <n v="0.8256"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="9"/>
+    <n v="0.84160000000000001"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="10"/>
+    <n v="0.88029999999999997"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="11"/>
+    <n v="0.89770000000000005"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="12"/>
+    <n v="0.90510000000000002"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="13"/>
+    <n v="0.90959999999999996"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="14"/>
+    <n v="0.91590000000000005"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="15"/>
+    <n v="0.92200000000000004"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="16"/>
+    <n v="0.92369999999999997"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="17"/>
+    <n v="0.92779999999999996"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="18"/>
+    <n v="0.93220000000000003"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="19"/>
+    <n v="0.9345"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="20"/>
+    <n v="0.93810000000000004"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="21"/>
+    <n v="0.94069999999999998"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="22"/>
+    <n v="0.94320000000000004"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="23"/>
+    <n v="0.94589999999999996"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="24"/>
+    <n v="0.94779999999999998"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="25"/>
+    <n v="0.95"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="26"/>
+    <n v="0.95050000000000001"/>
+  </r>
+  <r>
+    <s v="MLP"/>
+    <n v="3"/>
+    <s v="CEL"/>
+    <s v="SGD"/>
+    <x v="27"/>
+    <n v="0.95320000000000005"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8731AC2C-3EAC-5F4C-B84F-B7CCD8C5203D}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8731AC2C-3EAC-5F4C-B84F-B7CCD8C5203D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:J8" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2602,7 +4118,7 @@
     <dataField name="Max of Accuracy" fld="5" subtotal="max" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="6">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2762,7 +4278,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1483F01D-7C07-824E-95C5-CBBA04DCF80A}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1483F01D-7C07-824E-95C5-CBBA04DCF80A}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField axis="axisRow" showAll="0">
@@ -2860,10 +4376,176 @@
     <dataField name="Max of Accuracy" fld="5" subtotal="max" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F8C329C-EE6D-1F45-9D5D-EE37840A0BE4}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="29">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Max of Accuracy" fld="5" subtotal="max" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="1">
     <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2885,7 +4567,22 @@
     <tableColumn id="3" xr3:uid="{85F605B3-4C37-5549-9B70-E3D39183B8D1}" name="Loss function"/>
     <tableColumn id="4" xr3:uid="{754B1E30-C5BF-044F-B6BA-FDE828EDA148}" name="Optimizer"/>
     <tableColumn id="5" xr3:uid="{8507C784-0D9D-1949-B694-2722C7F62D34}" name="Epochs"/>
-    <tableColumn id="6" xr3:uid="{F9DFF34D-64C3-3249-9C4F-513391FC7716}" name="Accuracy" dataDxfId="12" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{F9DFF34D-64C3-3249-9C4F-513391FC7716}" name="Accuracy" dataDxfId="2" dataCellStyle="Percent"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3459D63B-0F9D-8344-8D2C-81E5A2414AD8}" name="Table2" displayName="Table2" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29" xr:uid="{6D1B72E7-6007-1F46-B7C9-6EFD00FA36C1}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DADFA5EE-10F9-A148-9FC5-725478C72E26}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{EB0B350F-B2C3-7A41-91FB-0083BC921108}" name="Hidden layers"/>
+    <tableColumn id="3" xr3:uid="{A8B612AA-6DA4-0342-AE83-58B38B9DDA58}" name="Loss function"/>
+    <tableColumn id="4" xr3:uid="{9947024C-BB9F-F241-BADF-DDDC981BB006}" name="Optimizer"/>
+    <tableColumn id="5" xr3:uid="{C0AB1A50-8BD6-EB42-AB39-C63EF489404A}" name="Epochs"/>
+    <tableColumn id="6" xr3:uid="{9C86C7DD-5DFF-634B-A8E2-84DE25548C17}" name="Accuracy" dataDxfId="1" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3188,10 +4885,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE5BBC-5F07-5B40-9974-D436A493470B}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A3:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H18" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3357,10 +5057,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D254E798-C300-CD42-BC9E-905184EF2817}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D16"/>
+      <selection activeCell="H18" sqref="H18:H19"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="2" previousRow="2" click="1" r:id="rId1">
         <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
       </pivotSelection>
@@ -3570,10 +5273,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{215E1444-2F67-E245-9670-1A6BC52D8156}">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="35" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3605,20 +5311,20 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -3639,16 +5345,16 @@
       <c r="F2" s="1">
         <v>0.85240000000000005</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9">
-        <v>3</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="8">
+        <v>3</v>
+      </c>
+      <c r="L2" s="8">
         <v>10</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>30</v>
       </c>
     </row>
@@ -3671,22 +5377,22 @@
       <c r="F3" s="1">
         <v>0.90380000000000005</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
         <v>1</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>0.2833</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <v>0.64439999999999997</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <v>0.75419999999999998</v>
       </c>
     </row>
@@ -3709,22 +5415,22 @@
       <c r="F4" s="1">
         <v>0.92749999999999999</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="10">
+      <c r="I4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="9">
         <v>2</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="10">
         <v>0.17460000000000001</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="10">
         <v>0.38640000000000002</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="10">
         <v>0.74580000000000002</v>
       </c>
     </row>
@@ -3747,22 +5453,22 @@
       <c r="F5" s="1">
         <v>0.78580000000000005</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="10">
+      <c r="I5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
         <v>6</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>9.8299999999999998E-2</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <v>0.10100000000000001</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="10">
         <v>0.1014</v>
       </c>
     </row>
@@ -3785,22 +5491,22 @@
       <c r="F6" s="1">
         <v>0.89610000000000001</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="9">
         <v>1</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10">
         <v>0.85240000000000005</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <v>0.90380000000000005</v>
       </c>
-      <c r="M6" s="11">
+      <c r="M6" s="10">
         <v>0.92749999999999999</v>
       </c>
     </row>
@@ -3823,22 +5529,22 @@
       <c r="F7" s="1">
         <v>0.92779999999999996</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="9">
         <v>2</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>0.78580000000000005</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>0.89610000000000001</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="10">
         <v>0.92779999999999996</v>
       </c>
     </row>
@@ -3861,22 +5567,22 @@
       <c r="F8" s="1">
         <v>0.1028</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <v>6</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>0.1028</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="10">
         <v>0.1135</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="10">
         <v>0.87919999999999998</v>
       </c>
     </row>
@@ -3899,22 +5605,22 @@
       <c r="F9" s="1">
         <v>0.1135</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>0.86839999999999995</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="10">
         <v>0.8952</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="10">
         <v>0.90980000000000005</v>
       </c>
     </row>
@@ -4211,4 +5917,892 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E698B8E3-AD40-654B-81E8-DFA08EDED70F}">
+  <dimension ref="A3:B31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.1535</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.18940000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.26290000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.42559999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.61539999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.71020000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.77210000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.80710000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0.8256</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.84160000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.88029999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.89770000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.90959999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>40</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.92369999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>50</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.92779999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>55</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0.93220000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>60</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.9345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>65</v>
+      </c>
+      <c r="B24" s="4">
+        <v>0.93810000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.94069999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>75</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>80</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.94589999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>85</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0.94779999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>90</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>95</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0.95050000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>100</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.95320000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988B2FE3-E2CD-5F47-A0CC-2437139733F6}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.1535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.18940000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.26290000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.42559999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.61539999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.71020000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.77210000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.80710000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.8256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.84160000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.88029999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.89770000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.90510000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.90959999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.91590000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.92369999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.92779999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.93220000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.9345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>65</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.93810000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>70</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0.94069999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0.94320000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.94589999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>85</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.94779999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>95</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.95050000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.95320000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F2:F29">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7BD32F29-59B2-2340-8EFB-5B1FCEB10EBE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7BD32F29-59B2-2340-8EFB-5B1FCEB10EBE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F29</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/outcome/Analysis.xlsx
+++ b/outcome/Analysis.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirayhao/Code/ml/outcome/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A60DA3-89A5-1048-800C-814F333B7ADC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560522E4-EA57-9148-AB1C-DEA66A449FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14180" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="3" xr2:uid="{CB1111F2-1B6E-6948-92C8-075319955442}"/>
+    <workbookView xWindow="14200" yWindow="-21140" windowWidth="38400" windowHeight="21140" activeTab="2" xr2:uid="{CB1111F2-1B6E-6948-92C8-075319955442}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -140,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -148,12 +148,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -168,16 +248,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -187,10 +300,10 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -3443,16 +3556,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632178</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>178505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>73377</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3484,16 +3597,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>639885</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>185614</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136769</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4393,7 +4506,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F8C329C-EE6D-1F45-9D5D-EE37840A0BE4}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4F8C329C-EE6D-1F45-9D5D-EE37840A0BE4}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -4531,7 +4644,7 @@
     <dataField name="Max of Accuracy" fld="5" subtotal="max" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4582,7 +4695,7 @@
     <tableColumn id="3" xr3:uid="{A8B612AA-6DA4-0342-AE83-58B38B9DDA58}" name="Loss function"/>
     <tableColumn id="4" xr3:uid="{9947024C-BB9F-F241-BADF-DDDC981BB006}" name="Optimizer"/>
     <tableColumn id="5" xr3:uid="{C0AB1A50-8BD6-EB42-AB39-C63EF489404A}" name="Epochs"/>
-    <tableColumn id="6" xr3:uid="{9C86C7DD-5DFF-634B-A8E2-84DE25548C17}" name="Accuracy" dataDxfId="1" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{9C86C7DD-5DFF-634B-A8E2-84DE25548C17}" name="Accuracy" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4890,8 +5003,8 @@
   </sheetPr>
   <dimension ref="A3:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:H19"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5276,10 +5389,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5289,10 +5402,13 @@
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
     <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5311,22 +5427,8 @@
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5345,20 +5447,8 @@
       <c r="F2" s="1">
         <v>0.85240000000000005</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="8">
-        <v>3</v>
-      </c>
-      <c r="L2" s="8">
-        <v>10</v>
-      </c>
-      <c r="M2" s="8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5377,26 +5467,8 @@
       <c r="F3" s="1">
         <v>0.90380000000000005</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0.2833</v>
-      </c>
-      <c r="L3" s="10">
-        <v>0.64439999999999997</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0.75419999999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -5415,26 +5487,8 @@
       <c r="F4" s="1">
         <v>0.92749999999999999</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="9">
-        <v>2</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0.17460000000000001</v>
-      </c>
-      <c r="L4" s="10">
-        <v>0.38640000000000002</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.74580000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5453,26 +5507,8 @@
       <c r="F5" s="1">
         <v>0.78580000000000005</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="J5" s="9">
-        <v>6</v>
-      </c>
-      <c r="K5" s="10">
-        <v>9.8299999999999998E-2</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0.1014</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -5491,26 +5527,8 @@
       <c r="F6" s="1">
         <v>0.89610000000000001</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" s="9">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0.85240000000000005</v>
-      </c>
-      <c r="L6" s="10">
-        <v>0.90380000000000005</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0.92749999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -5529,26 +5547,8 @@
       <c r="F7" s="1">
         <v>0.92779999999999996</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0.78580000000000005</v>
-      </c>
-      <c r="L7" s="10">
-        <v>0.89610000000000001</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.92779999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -5567,26 +5567,8 @@
       <c r="F8" s="1">
         <v>0.1028</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="9">
-        <v>6</v>
-      </c>
-      <c r="K8" s="10">
-        <v>0.1028</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0.1135</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0.87919999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -5605,26 +5587,8 @@
       <c r="F9" s="1">
         <v>0.1135</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="10">
-        <v>0.86839999999999995</v>
-      </c>
-      <c r="L9" s="10">
-        <v>0.8952</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0.90980000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -5644,7 +5608,7 @@
         <v>0.87919999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -5664,7 +5628,7 @@
         <v>0.2833</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -5684,7 +5648,7 @@
         <v>0.64439999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -5704,7 +5668,7 @@
         <v>0.75419999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -5723,8 +5687,22 @@
       <c r="F14" s="1">
         <v>0.17460000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -5743,8 +5721,20 @@
       <c r="F15" s="1">
         <v>0.38640000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13">
+        <v>3</v>
+      </c>
+      <c r="P15" s="13">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -5763,8 +5753,26 @@
       <c r="F16" s="1">
         <v>0.74580000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1</v>
+      </c>
+      <c r="O16" s="17">
+        <v>0.2833</v>
+      </c>
+      <c r="P16" s="17">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>0.75419999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -5783,8 +5791,26 @@
       <c r="F17" s="1">
         <v>9.8299999999999998E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="16">
+        <v>2</v>
+      </c>
+      <c r="O17" s="17">
+        <v>0.17460000000000001</v>
+      </c>
+      <c r="P17" s="17">
+        <v>0.38640000000000002</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>0.74580000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -5803,8 +5829,26 @@
       <c r="F18" s="1">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="16">
+        <v>6</v>
+      </c>
+      <c r="O18" s="17">
+        <v>9.8299999999999998E-2</v>
+      </c>
+      <c r="P18" s="17">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0.1014</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -5823,8 +5867,26 @@
       <c r="F19" s="1">
         <v>0.1014</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="16">
+        <v>1</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="P19" s="17">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>0.92749999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -5843,8 +5905,26 @@
       <c r="F20" s="1">
         <v>0.86839999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" s="16">
+        <v>2</v>
+      </c>
+      <c r="O20" s="17">
+        <v>0.78580000000000005</v>
+      </c>
+      <c r="P20" s="17">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>0.92779999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5863,8 +5943,26 @@
       <c r="F21" s="1">
         <v>0.8952</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="L21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="16">
+        <v>6</v>
+      </c>
+      <c r="O21" s="17">
+        <v>0.1028</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0.1135</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>0.87919999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -5883,16 +5981,34 @@
       <c r="F22" s="1">
         <v>0.90980000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="21">
+        <v>0.86839999999999995</v>
+      </c>
+      <c r="P22" s="21">
+        <v>0.8952</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>0.90980000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="40" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="O14:Q14"/>
   </mergeCells>
-  <conditionalFormatting sqref="K3:M9">
+  <conditionalFormatting sqref="O16:Q22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -5923,8 +6039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E698B8E3-AD40-654B-81E8-DFA08EDED70F}">
   <dimension ref="A3:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
